--- a/Accounting/CreateDynamicsEntities/Data/Inputs/Entities.xlsx
+++ b/Accounting/CreateDynamicsEntities/Data/Inputs/Entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardonis-my.sharepoint.com/personal/rbrowning_cardon_us/Documents/Documents/UiPath/Robotic Processes/Corporate/Accounting/CreateDynamicsEntities/Data/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{3FE179D9-1EF3-4B6F-A91E-4450CC12F60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94C969AA-0594-4190-9999-A5784BAE7856}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{3FE179D9-1EF3-4B6F-A91E-4450CC12F60D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82F55F9E-1651-47F1-9B4F-90A724E49D32}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{AA1214C1-A9E0-4C11-A8AB-234244606368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="38040" activeTab="2" xr2:uid="{AA1214C1-A9E0-4C11-A8AB-234244606368}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Entities" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Legal Entities Copy" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Legal Entities'!$A$7:$T$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Legal Entities'!$A$7:$T$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Legal Entities Copy'!$A$7:$T$58</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="393">
   <si>
     <t>Legal Entities</t>
   </si>
@@ -1399,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1455,6 +1455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1779,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FD0533-5877-4BA6-953D-4F72B3FF872E}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,8 +1837,8 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
@@ -1860,8 +1861,8 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
@@ -1882,8 +1883,8 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
@@ -1906,8 +1907,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
@@ -1930,8 +1931,8 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
@@ -1945,27 +1946,27 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2055,1622 +2056,4852 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="A8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="13" t="s">
+      <c r="L8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="T8" s="12">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="U8" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V8" s="16" t="str">
-        <f t="shared" ref="V8:V24" si="0">CONCATENATE("Alloc_",$B8)</f>
-        <v>Alloc_RVBH</v>
+        <f t="shared" ref="V8:V58" si="0">CONCATENATE("Alloc_",$B8)</f>
+        <v>Alloc_CDMC</v>
       </c>
       <c r="W8" s="16" t="str">
-        <f t="shared" ref="W8:W24" si="1">CONCATENATE("Ctvr_",$B8)</f>
-        <v>Ctvr_RVBH</v>
+        <f t="shared" ref="W8:W58" si="1">CONCATENATE("Ctvr_",$B8)</f>
+        <v>Ctvr_CDMC</v>
       </c>
       <c r="X8" s="16" t="str">
-        <f t="shared" ref="X8:X24" si="2">CONCATENATE("GJrT_",$B8)</f>
-        <v>GJrT_RVBH</v>
+        <f t="shared" ref="X8:X58" si="2">CONCATENATE("GJrT_",$B8)</f>
+        <v>GJrT_CDMC</v>
       </c>
       <c r="Y8" s="16" t="str">
-        <f t="shared" ref="Y8:Y24" si="3">CONCATENATE("GnJr_",$B8)</f>
-        <v>GnJr_RVBH</v>
+        <f t="shared" ref="Y8:Y58" si="3">CONCATENATE("GnJr_",$B8)</f>
+        <v>GnJr_CDMC</v>
       </c>
       <c r="Z8" s="16" t="str">
-        <f t="shared" ref="Z8:Z24" si="4">CONCATENATE("InCo_",$B8)</f>
-        <v>InCo_RVBH</v>
+        <f t="shared" ref="Z8:Z58" si="4">CONCATENATE("InCo_",$B8)</f>
+        <v>InCo_CDMC</v>
       </c>
       <c r="AA8" s="16" t="str">
-        <f t="shared" ref="AA8:AA24" si="5">CONCATENATE("Peri_",$B8)</f>
-        <v>Peri_RVBH</v>
-      </c>
-      <c r="AB8" s="28">
-        <v>12554</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>22554</v>
+        <f t="shared" ref="AA8:AA58" si="5">CONCATENATE("Peri_",$B8)</f>
+        <v>Peri_CDMC</v>
+      </c>
+      <c r="AB8">
+        <v>12501</v>
+      </c>
+      <c r="AC8">
+        <v>22501</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3">
-        <v>47448</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="L9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>368</v>
+      <c r="Q9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="T9" s="12">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="U9" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVBC</v>
+        <v>Alloc_HOCD</v>
       </c>
       <c r="W9" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVBC</v>
+        <v>Ctvr_HOCD</v>
       </c>
       <c r="X9" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVBC</v>
+        <v>GJrT_HOCD</v>
       </c>
       <c r="Y9" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVBC</v>
+        <v>GnJr_HOCD</v>
       </c>
       <c r="Z9" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVBC</v>
+        <v>InCo_HOCD</v>
       </c>
       <c r="AA9" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVBC</v>
-      </c>
-      <c r="AB9" s="28">
-        <v>12553</v>
+        <v>Peri_HOCD</v>
+      </c>
+      <c r="AB9">
+        <v>12505</v>
       </c>
       <c r="AC9" s="28">
-        <v>22553</v>
+        <v>22505</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="A10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="13" t="s">
+      <c r="L10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="22" t="s">
+      <c r="Q10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S10" s="20" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="T10" s="12">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVCH</v>
+        <v>Alloc_MOGI</v>
       </c>
       <c r="W10" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVCH</v>
+        <v>Ctvr_MOGI</v>
       </c>
       <c r="X10" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVCH</v>
+        <v>GJrT_MOGI</v>
       </c>
       <c r="Y10" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVCH</v>
+        <v>GnJr_MOGI</v>
       </c>
       <c r="Z10" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVCH</v>
+        <v>InCo_MOGI</v>
       </c>
       <c r="AA10" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVCH</v>
-      </c>
-      <c r="AB10" s="28">
-        <v>12555</v>
+        <v>Peri_MOGI</v>
+      </c>
+      <c r="AB10">
+        <v>12530</v>
       </c>
       <c r="AC10" s="28">
-        <v>22555</v>
+        <v>22530</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="A11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="L11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>370</v>
+      <c r="Q11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="T11" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U11" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVCO</v>
+        <v>Alloc_BELT</v>
       </c>
       <c r="W11" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVCO</v>
+        <v>Ctvr_BELT</v>
       </c>
       <c r="X11" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVCO</v>
+        <v>GJrT_BELT</v>
       </c>
       <c r="Y11" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVCO</v>
+        <v>GnJr_BELT</v>
       </c>
       <c r="Z11" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVCO</v>
+        <v>InCo_BELT</v>
       </c>
       <c r="AA11" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVCO</v>
-      </c>
-      <c r="AB11" s="28">
-        <v>12556</v>
+        <v>Peri_BELT</v>
+      </c>
+      <c r="AB11">
+        <v>12520</v>
       </c>
       <c r="AC11" s="28">
-        <v>22556</v>
+        <v>22520</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="A12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="13" t="s">
+      <c r="L12" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="22" t="s">
+      <c r="Q12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="20" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="T12" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U12" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVCS</v>
+        <v>Alloc_BRSV</v>
       </c>
       <c r="W12" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVCS</v>
+        <v>Ctvr_BRSV</v>
       </c>
       <c r="X12" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVCS</v>
+        <v>GJrT_BRSV</v>
       </c>
       <c r="Y12" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVCS</v>
+        <v>GnJr_BRSV</v>
       </c>
       <c r="Z12" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVCS</v>
+        <v>InCo_BRSV</v>
       </c>
       <c r="AA12" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVCS</v>
-      </c>
-      <c r="AB12" s="28">
-        <v>12558</v>
+        <v>Peri_BRSV</v>
+      </c>
+      <c r="AB12">
+        <v>12521</v>
       </c>
       <c r="AC12" s="28">
-        <v>22558</v>
+        <v>22521</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="A13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="L13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>371</v>
+      <c r="Q13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="T13" s="12">
-        <v>31</v>
-      </c>
-      <c r="U13" s="31" t="s">
-        <v>390</v>
+        <v>30</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>392</v>
       </c>
       <c r="V13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVCU</v>
+        <v>Alloc_TRHT</v>
       </c>
       <c r="W13" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVCU</v>
+        <v>Ctvr_TRHT</v>
       </c>
       <c r="X13" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVCU</v>
+        <v>GJrT_TRHT</v>
       </c>
       <c r="Y13" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVCU</v>
+        <v>GnJr_TRHT</v>
       </c>
       <c r="Z13" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVCU</v>
+        <v>InCo_TRHT</v>
       </c>
       <c r="AA13" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVCU</v>
-      </c>
-      <c r="AB13" s="28">
-        <v>12557</v>
+        <v>Peri_TRHT</v>
+      </c>
+      <c r="AB13">
+        <v>12569</v>
       </c>
       <c r="AC13" s="28">
-        <v>22557</v>
+        <v>22569</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="A14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" s="13" t="s">
+      <c r="L14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="22" t="s">
+      <c r="Q14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="20" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="T14" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U14" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVGH</v>
+        <v>Alloc_LSHH</v>
       </c>
       <c r="W14" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVGH</v>
+        <v>Ctvr_LSHH</v>
       </c>
       <c r="X14" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVGH</v>
+        <v>GJrT_LSHH</v>
       </c>
       <c r="Y14" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVGH</v>
+        <v>GnJr_LSHH</v>
       </c>
       <c r="Z14" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVGH</v>
+        <v>InCo_LSHH</v>
       </c>
       <c r="AA14" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVGH</v>
-      </c>
-      <c r="AB14" s="28">
-        <v>12559</v>
+        <v>Peri_LSHH</v>
+      </c>
+      <c r="AB14">
+        <v>12548</v>
       </c>
       <c r="AC14" s="28">
-        <v>22559</v>
+        <v>22548</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="A15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="L15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>373</v>
+      <c r="Q15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="T15" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U15" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVHM</v>
+        <v>Alloc_LSTH</v>
       </c>
       <c r="W15" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVHM</v>
+        <v>Ctvr_LSTH</v>
       </c>
       <c r="X15" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVHM</v>
+        <v>GJrT_LSTH</v>
       </c>
       <c r="Y15" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVHM</v>
+        <v>GnJr_LSTH</v>
       </c>
       <c r="Z15" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVHM</v>
+        <v>InCo_LSTH</v>
       </c>
       <c r="AA15" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVHM</v>
+        <v>Peri_LSTH</v>
       </c>
       <c r="AB15" s="28">
-        <v>12560</v>
+        <v>12549</v>
       </c>
       <c r="AC15" s="28">
-        <v>22560</v>
+        <v>22549</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="A16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="13" t="s">
+      <c r="J16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="13" t="s">
+      <c r="L16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>374</v>
+      <c r="S16" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="T16" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U16" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVLI</v>
+        <v>Alloc_CDVP</v>
       </c>
       <c r="W16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVLI</v>
+        <v>Ctvr_CDVP</v>
       </c>
       <c r="X16" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVLI</v>
+        <v>GJrT_CDVP</v>
       </c>
       <c r="Y16" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVLI</v>
+        <v>GnJr_CDVP</v>
       </c>
       <c r="Z16" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVLI</v>
+        <v>InCo_CDVP</v>
       </c>
       <c r="AA16" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVLI</v>
+        <v>Peri_CDVP</v>
       </c>
       <c r="AB16" s="28">
-        <v>12561</v>
+        <v>12607</v>
       </c>
       <c r="AC16" s="28">
-        <v>22561</v>
+        <v>22607</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="A17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="L17" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="33" t="s">
         <v>33</v>
       </c>
       <c r="R17" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="20" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="T17" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U17" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVMM</v>
+        <v>Alloc_PHLP</v>
       </c>
       <c r="W17" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVMM</v>
+        <v>Ctvr_PHLP</v>
       </c>
       <c r="X17" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVMM</v>
+        <v>GJrT_PHLP</v>
       </c>
       <c r="Y17" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVMM</v>
+        <v>GnJr_PHLP</v>
       </c>
       <c r="Z17" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVMM</v>
+        <v>InCo_PHLP</v>
       </c>
       <c r="AA17" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVMM</v>
+        <v>Peri_PHLP</v>
       </c>
       <c r="AB17" s="28">
-        <v>12562</v>
+        <v>12619</v>
       </c>
       <c r="AC17" s="28">
-        <v>22562</v>
+        <v>22619</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="A18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K18" s="13" t="s">
+      <c r="J18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="13" t="s">
+      <c r="L18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="20" t="s">
-        <v>376</v>
+      <c r="S18" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="T18" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U18" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVPH</v>
+        <v>Alloc_CREP</v>
       </c>
       <c r="W18" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVPH</v>
+        <v>Ctvr_CREP</v>
       </c>
       <c r="X18" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVPH</v>
+        <v>GJrT_CREP</v>
       </c>
       <c r="Y18" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVPH</v>
+        <v>GnJr_CREP</v>
       </c>
       <c r="Z18" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVPH</v>
+        <v>InCo_CREP</v>
       </c>
       <c r="AA18" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVPH</v>
+        <v>Peri_CREP</v>
       </c>
       <c r="AB18" s="28">
-        <v>12563</v>
+        <v>12610</v>
       </c>
       <c r="AC18" s="28">
-        <v>22563</v>
+        <v>22610</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="A19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="J19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="L19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="33" t="s">
         <v>33</v>
       </c>
       <c r="R19" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="20" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="T19" s="12">
-        <v>31</v>
-      </c>
-      <c r="U19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVRH</v>
+        <v>Alloc_AHLP</v>
       </c>
       <c r="W19" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVRH</v>
+        <v>Ctvr_AHLP</v>
       </c>
       <c r="X19" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVRH</v>
+        <v>GJrT_AHLP</v>
       </c>
       <c r="Y19" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVRH</v>
+        <v>GnJr_AHLP</v>
       </c>
       <c r="Z19" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVRH</v>
+        <v>InCo_AHLP</v>
       </c>
       <c r="AA19" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVRH</v>
+        <v>Peri_AHLP</v>
       </c>
       <c r="AB19" s="28">
-        <v>12564</v>
+        <v>12600</v>
       </c>
       <c r="AC19" s="28">
-        <v>22564</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="13" t="s">
+      <c r="A20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="13" t="s">
+      <c r="J20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="13" t="s">
+      <c r="L20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="T20" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U20" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V20" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_RVUH</v>
+        <v>Alloc_ATLP</v>
       </c>
       <c r="W20" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_RVUH</v>
+        <v>Ctvr_ATLP</v>
       </c>
       <c r="X20" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_RVUH</v>
+        <v>GJrT_ATLP</v>
       </c>
       <c r="Y20" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_RVUH</v>
+        <v>GnJr_ATLP</v>
       </c>
       <c r="Z20" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_RVUH</v>
+        <v>InCo_ATLP</v>
       </c>
       <c r="AA20" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_RVUH</v>
+        <v>Peri_ATLP</v>
       </c>
       <c r="AB20" s="28">
-        <v>12565</v>
+        <v>12602</v>
       </c>
       <c r="AC20" s="28">
-        <v>22565</v>
+        <v>22602</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="A21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P21" s="3" t="s">
+      <c r="L21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="33" t="s">
         <v>33</v>
       </c>
       <c r="R21" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="20" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="T21" s="12">
-        <v>31</v>
-      </c>
-      <c r="U21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V21" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_GSST</v>
+        <v>Alloc_ASTP</v>
       </c>
       <c r="W21" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_GSST</v>
+        <v>Ctvr_ASTP</v>
       </c>
       <c r="X21" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_GSST</v>
+        <v>GJrT_ASTP</v>
       </c>
       <c r="Y21" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_GSST</v>
+        <v>GnJr_ASTP</v>
       </c>
       <c r="Z21" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_GSST</v>
+        <v>InCo_ASTP</v>
       </c>
       <c r="AA21" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_GSST</v>
+        <v>Peri_ASTP</v>
       </c>
       <c r="AB21" s="28">
-        <v>12567</v>
+        <v>12603</v>
       </c>
       <c r="AC21" s="28">
-        <v>22567</v>
+        <v>22603</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="H22" s="13" t="s">
+      <c r="A22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K22" s="13" t="s">
+      <c r="J22" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="13" t="s">
+      <c r="L22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="16">
+        <v>47448</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="22" t="s">
         <v>33</v>
       </c>
       <c r="S22" s="20" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="T22" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>390</v>
       </c>
       <c r="V22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_HHTH</v>
+        <v>Alloc_BCCP</v>
       </c>
       <c r="W22" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_HHTH</v>
+        <v>Ctvr_BCCP</v>
       </c>
       <c r="X22" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_HHTH</v>
+        <v>GJrT_BCCP</v>
       </c>
       <c r="Y22" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_HHTH</v>
+        <v>GnJr_BCCP</v>
       </c>
       <c r="Z22" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_HHTH</v>
+        <v>InCo_BCCP</v>
       </c>
       <c r="AA22" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_HHTH</v>
+        <v>Peri_BCCP</v>
       </c>
       <c r="AB22" s="28">
-        <v>12568</v>
+        <v>12604</v>
       </c>
       <c r="AC22" s="28">
-        <v>22568</v>
+        <v>22604</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="A23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="L23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="33" t="s">
         <v>33</v>
       </c>
       <c r="R23" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S23" s="20" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="T23" s="12">
-        <v>31</v>
-      </c>
-      <c r="U23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_SBPE</v>
+        <v>Alloc_BTHP</v>
       </c>
       <c r="W23" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_SBPE</v>
+        <v>Ctvr_BTHP</v>
       </c>
       <c r="X23" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_SBPE</v>
+        <v>GJrT_BTHP</v>
       </c>
       <c r="Y23" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_SBPE</v>
+        <v>GnJr_BTHP</v>
       </c>
       <c r="Z23" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_SBPE</v>
+        <v>InCo_BTHP</v>
       </c>
       <c r="AA23" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Peri_SBPE</v>
+        <v>Peri_BTHP</v>
       </c>
       <c r="AB23" s="28">
-        <v>12566</v>
+        <v>12605</v>
       </c>
       <c r="AC23" s="28">
-        <v>22566</v>
+        <v>22605</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="A24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="K24" s="13" t="s">
+      <c r="J24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="13">
-        <v>45040</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q24" s="13" t="s">
+      <c r="L24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R24" s="22" t="s">
         <v>33</v>
       </c>
       <c r="S24" s="20" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="T24" s="12">
-        <v>31</v>
-      </c>
-      <c r="U24" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="31" t="s">
         <v>390</v>
       </c>
       <c r="V24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>Alloc_ICVS</v>
+        <v>Alloc_BELP</v>
       </c>
       <c r="W24" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>Ctvr_ICVS</v>
+        <v>Ctvr_BELP</v>
       </c>
       <c r="X24" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>GJrT_ICVS</v>
+        <v>GJrT_BELP</v>
       </c>
       <c r="Y24" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>GnJr_ICVS</v>
+        <v>GnJr_BELP</v>
       </c>
       <c r="Z24" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>InCo_ICVS</v>
+        <v>InCo_BELP</v>
       </c>
       <c r="AA24" s="16" t="str">
         <f t="shared" si="5"/>
+        <v>Peri_BELP</v>
+      </c>
+      <c r="AB24" s="28">
+        <v>12606</v>
+      </c>
+      <c r="AC24" s="28">
+        <v>22606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="T25" s="12">
+        <v>20</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_CHLP</v>
+      </c>
+      <c r="W25" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_CHLP</v>
+      </c>
+      <c r="X25" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_CHLP</v>
+      </c>
+      <c r="Y25" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_CHLP</v>
+      </c>
+      <c r="Z25" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_CHLP</v>
+      </c>
+      <c r="AA25" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_CHLP</v>
+      </c>
+      <c r="AB25" s="28">
+        <v>12608</v>
+      </c>
+      <c r="AC25" s="28">
+        <v>22608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="T26" s="12">
+        <v>20</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_CSCP</v>
+      </c>
+      <c r="W26" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_CSCP</v>
+      </c>
+      <c r="X26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_CSCP</v>
+      </c>
+      <c r="Y26" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_CSCP</v>
+      </c>
+      <c r="Z26" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_CSCP</v>
+      </c>
+      <c r="AA26" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_CSCP</v>
+      </c>
+      <c r="AB26" s="28">
+        <v>12609</v>
+      </c>
+      <c r="AC26" s="28">
+        <v>22609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="T27" s="12">
+        <v>20</v>
+      </c>
+      <c r="U27" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_GHLP</v>
+      </c>
+      <c r="W27" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_GHLP</v>
+      </c>
+      <c r="X27" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_GHLP</v>
+      </c>
+      <c r="Y27" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_GHLP</v>
+      </c>
+      <c r="Z27" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_GHLP</v>
+      </c>
+      <c r="AA27" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_GHLP</v>
+      </c>
+      <c r="AB27" s="28">
+        <v>12611</v>
+      </c>
+      <c r="AC27" s="28">
+        <v>22611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="T28" s="12">
+        <v>20</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_HTCP</v>
+      </c>
+      <c r="W28" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_HTCP</v>
+      </c>
+      <c r="X28" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_HTCP</v>
+      </c>
+      <c r="Y28" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_HTCP</v>
+      </c>
+      <c r="Z28" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_HTCP</v>
+      </c>
+      <c r="AA28" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_HTCP</v>
+      </c>
+      <c r="AB28" s="28">
+        <v>12612</v>
+      </c>
+      <c r="AC28" s="28">
+        <v>22612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="T29" s="12">
+        <v>20</v>
+      </c>
+      <c r="U29" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_HTPP</v>
+      </c>
+      <c r="W29" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_HTPP</v>
+      </c>
+      <c r="X29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_HTPP</v>
+      </c>
+      <c r="Y29" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_HTPP</v>
+      </c>
+      <c r="Z29" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_HTPP</v>
+      </c>
+      <c r="AA29" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_HTPP</v>
+      </c>
+      <c r="AB29" s="28">
+        <v>12613</v>
+      </c>
+      <c r="AC29" s="28">
+        <v>22613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="T30" s="12">
+        <v>20</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_HTSP</v>
+      </c>
+      <c r="W30" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_HTSP</v>
+      </c>
+      <c r="X30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_HTSP</v>
+      </c>
+      <c r="Y30" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_HTSP</v>
+      </c>
+      <c r="Z30" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_HTSP</v>
+      </c>
+      <c r="AA30" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_HTSP</v>
+      </c>
+      <c r="AB30" s="28">
+        <v>12569</v>
+      </c>
+      <c r="AC30" s="28">
+        <v>22569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="T31" s="12">
+        <v>20</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_HARP</v>
+      </c>
+      <c r="W31" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_HARP</v>
+      </c>
+      <c r="X31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_HARP</v>
+      </c>
+      <c r="Y31" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_HARP</v>
+      </c>
+      <c r="Z31" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_HARP</v>
+      </c>
+      <c r="AA31" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_HARP</v>
+      </c>
+      <c r="AB31" s="28">
+        <v>12615</v>
+      </c>
+      <c r="AC31" s="28">
+        <v>22615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="T32" s="12">
+        <v>20</v>
+      </c>
+      <c r="U32" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_JALP</v>
+      </c>
+      <c r="W32" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_JALP</v>
+      </c>
+      <c r="X32" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_JALP</v>
+      </c>
+      <c r="Y32" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_JALP</v>
+      </c>
+      <c r="Z32" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_JALP</v>
+      </c>
+      <c r="AA32" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_JALP</v>
+      </c>
+      <c r="AB32" s="28">
+        <v>12616</v>
+      </c>
+      <c r="AC32" s="28">
+        <v>22616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="T33" s="12">
+        <v>20</v>
+      </c>
+      <c r="U33" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_LNHP</v>
+      </c>
+      <c r="W33" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_LNHP</v>
+      </c>
+      <c r="X33" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_LNHP</v>
+      </c>
+      <c r="Y33" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_LNHP</v>
+      </c>
+      <c r="Z33" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_LNHP</v>
+      </c>
+      <c r="AA33" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_LNHP</v>
+      </c>
+      <c r="AB33" s="28">
+        <v>12617</v>
+      </c>
+      <c r="AC33" s="28">
+        <v>22617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="T34" s="12">
+        <v>20</v>
+      </c>
+      <c r="U34" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_MMPP</v>
+      </c>
+      <c r="W34" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_MMPP</v>
+      </c>
+      <c r="X34" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_MMPP</v>
+      </c>
+      <c r="Y34" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_MMPP</v>
+      </c>
+      <c r="Z34" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_MMPP</v>
+      </c>
+      <c r="AA34" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_MMPP</v>
+      </c>
+      <c r="AB34" s="28">
+        <v>12618</v>
+      </c>
+      <c r="AC34" s="28">
+        <v>22618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="T35" s="12">
+        <v>20</v>
+      </c>
+      <c r="U35" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_PFHP</v>
+      </c>
+      <c r="W35" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_PFHP</v>
+      </c>
+      <c r="X35" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_PFHP</v>
+      </c>
+      <c r="Y35" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_PFHP</v>
+      </c>
+      <c r="Z35" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_PFHP</v>
+      </c>
+      <c r="AA35" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_PFHP</v>
+      </c>
+      <c r="AB35" s="28">
+        <v>12620</v>
+      </c>
+      <c r="AC35" s="28">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="T36" s="12">
+        <v>20</v>
+      </c>
+      <c r="U36" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RHPP</v>
+      </c>
+      <c r="W36" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RHPP</v>
+      </c>
+      <c r="X36" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RHPP</v>
+      </c>
+      <c r="Y36" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RHPP</v>
+      </c>
+      <c r="Z36" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RHPP</v>
+      </c>
+      <c r="AA36" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RHPP</v>
+      </c>
+      <c r="AB36" s="28">
+        <v>12621</v>
+      </c>
+      <c r="AC36" s="28">
+        <v>22621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="T37" s="12">
+        <v>20</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_UHLP</v>
+      </c>
+      <c r="W37" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_UHLP</v>
+      </c>
+      <c r="X37" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_UHLP</v>
+      </c>
+      <c r="Y37" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_UHLP</v>
+      </c>
+      <c r="Z37" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_UHLP</v>
+      </c>
+      <c r="AA37" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_UHLP</v>
+      </c>
+      <c r="AB37" s="28">
+        <v>12622</v>
+      </c>
+      <c r="AC37" s="28">
+        <v>22622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="T38" s="12">
+        <v>20</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_WCHP</v>
+      </c>
+      <c r="W38" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_WCHP</v>
+      </c>
+      <c r="X38" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_WCHP</v>
+      </c>
+      <c r="Y38" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_WCHP</v>
+      </c>
+      <c r="Z38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_WCHP</v>
+      </c>
+      <c r="AA38" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_WCHP</v>
+      </c>
+      <c r="AB38" s="28">
+        <v>12623</v>
+      </c>
+      <c r="AC38" s="28">
+        <v>22623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="T39" s="12">
+        <v>31</v>
+      </c>
+      <c r="U39" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVAH</v>
+      </c>
+      <c r="W39" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVAH</v>
+      </c>
+      <c r="X39" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVAH</v>
+      </c>
+      <c r="Y39" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVAH</v>
+      </c>
+      <c r="Z39" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVAH</v>
+      </c>
+      <c r="AA39" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVAH</v>
+      </c>
+      <c r="AB39" s="28">
+        <v>12550</v>
+      </c>
+      <c r="AC39" s="28">
+        <v>22550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="T40" s="12">
+        <v>31</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVAS</v>
+      </c>
+      <c r="W40" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVAS</v>
+      </c>
+      <c r="X40" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVAS</v>
+      </c>
+      <c r="Y40" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVAS</v>
+      </c>
+      <c r="Z40" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVAS</v>
+      </c>
+      <c r="AA40" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVAS</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>12551</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>22551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="N41" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="T41" s="12">
+        <v>31</v>
+      </c>
+      <c r="U41" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVAT</v>
+      </c>
+      <c r="W41" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVAT</v>
+      </c>
+      <c r="X41" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVAT</v>
+      </c>
+      <c r="Y41" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVAT</v>
+      </c>
+      <c r="Z41" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVAT</v>
+      </c>
+      <c r="AA41" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVAT</v>
+      </c>
+      <c r="AB41" s="28">
+        <v>12552</v>
+      </c>
+      <c r="AC41" s="28">
+        <v>22552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S42" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="T42" s="12">
+        <v>31</v>
+      </c>
+      <c r="U42" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVBH</v>
+      </c>
+      <c r="W42" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVBH</v>
+      </c>
+      <c r="X42" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVBH</v>
+      </c>
+      <c r="Y42" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVBH</v>
+      </c>
+      <c r="Z42" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVBH</v>
+      </c>
+      <c r="AA42" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVBH</v>
+      </c>
+      <c r="AB42" s="28">
+        <v>12554</v>
+      </c>
+      <c r="AC42" s="28">
+        <v>22554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="33">
+        <v>47448</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S43" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="T43" s="12">
+        <v>31</v>
+      </c>
+      <c r="U43" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVBC</v>
+      </c>
+      <c r="W43" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVBC</v>
+      </c>
+      <c r="X43" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVBC</v>
+      </c>
+      <c r="Y43" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVBC</v>
+      </c>
+      <c r="Z43" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVBC</v>
+      </c>
+      <c r="AA43" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVBC</v>
+      </c>
+      <c r="AB43" s="28">
+        <v>12553</v>
+      </c>
+      <c r="AC43" s="28">
+        <v>22553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="T44" s="12">
+        <v>31</v>
+      </c>
+      <c r="U44" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVCH</v>
+      </c>
+      <c r="W44" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVCH</v>
+      </c>
+      <c r="X44" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVCH</v>
+      </c>
+      <c r="Y44" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVCH</v>
+      </c>
+      <c r="Z44" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVCH</v>
+      </c>
+      <c r="AA44" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVCH</v>
+      </c>
+      <c r="AB44" s="28">
+        <v>12555</v>
+      </c>
+      <c r="AC44" s="28">
+        <v>22555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="N45" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O45" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="T45" s="12">
+        <v>31</v>
+      </c>
+      <c r="U45" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVCO</v>
+      </c>
+      <c r="W45" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVCO</v>
+      </c>
+      <c r="X45" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVCO</v>
+      </c>
+      <c r="Y45" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVCO</v>
+      </c>
+      <c r="Z45" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVCO</v>
+      </c>
+      <c r="AA45" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVCO</v>
+      </c>
+      <c r="AB45" s="28">
+        <v>12556</v>
+      </c>
+      <c r="AC45" s="28">
+        <v>22556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="T46" s="12">
+        <v>31</v>
+      </c>
+      <c r="U46" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVCS</v>
+      </c>
+      <c r="W46" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVCS</v>
+      </c>
+      <c r="X46" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVCS</v>
+      </c>
+      <c r="Y46" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVCS</v>
+      </c>
+      <c r="Z46" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVCS</v>
+      </c>
+      <c r="AA46" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVCS</v>
+      </c>
+      <c r="AB46" s="28">
+        <v>12558</v>
+      </c>
+      <c r="AC46" s="28">
+        <v>22558</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N47" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="T47" s="12">
+        <v>31</v>
+      </c>
+      <c r="U47" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVCU</v>
+      </c>
+      <c r="W47" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVCU</v>
+      </c>
+      <c r="X47" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVCU</v>
+      </c>
+      <c r="Y47" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVCU</v>
+      </c>
+      <c r="Z47" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVCU</v>
+      </c>
+      <c r="AA47" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVCU</v>
+      </c>
+      <c r="AB47" s="28">
+        <v>12557</v>
+      </c>
+      <c r="AC47" s="28">
+        <v>22557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="T48" s="12">
+        <v>31</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVGH</v>
+      </c>
+      <c r="W48" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVGH</v>
+      </c>
+      <c r="X48" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVGH</v>
+      </c>
+      <c r="Y48" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVGH</v>
+      </c>
+      <c r="Z48" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVGH</v>
+      </c>
+      <c r="AA48" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVGH</v>
+      </c>
+      <c r="AB48" s="28">
+        <v>12559</v>
+      </c>
+      <c r="AC48" s="28">
+        <v>22559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N49" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="O49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="P49" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S49" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="T49" s="12">
+        <v>31</v>
+      </c>
+      <c r="U49" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVHM</v>
+      </c>
+      <c r="W49" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVHM</v>
+      </c>
+      <c r="X49" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVHM</v>
+      </c>
+      <c r="Y49" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVHM</v>
+      </c>
+      <c r="Z49" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVHM</v>
+      </c>
+      <c r="AA49" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVHM</v>
+      </c>
+      <c r="AB49" s="28">
+        <v>12560</v>
+      </c>
+      <c r="AC49" s="28">
+        <v>22560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="T50" s="12">
+        <v>31</v>
+      </c>
+      <c r="U50" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVLI</v>
+      </c>
+      <c r="W50" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVLI</v>
+      </c>
+      <c r="X50" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVLI</v>
+      </c>
+      <c r="Y50" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVLI</v>
+      </c>
+      <c r="Z50" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVLI</v>
+      </c>
+      <c r="AA50" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVLI</v>
+      </c>
+      <c r="AB50" s="28">
+        <v>12561</v>
+      </c>
+      <c r="AC50" s="28">
+        <v>22561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O51" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S51" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="T51" s="12">
+        <v>31</v>
+      </c>
+      <c r="U51" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVMM</v>
+      </c>
+      <c r="W51" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVMM</v>
+      </c>
+      <c r="X51" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVMM</v>
+      </c>
+      <c r="Y51" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVMM</v>
+      </c>
+      <c r="Z51" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVMM</v>
+      </c>
+      <c r="AA51" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVMM</v>
+      </c>
+      <c r="AB51" s="28">
+        <v>12562</v>
+      </c>
+      <c r="AC51" s="28">
+        <v>22562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="T52" s="12">
+        <v>31</v>
+      </c>
+      <c r="U52" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V52" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVPH</v>
+      </c>
+      <c r="W52" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVPH</v>
+      </c>
+      <c r="X52" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVPH</v>
+      </c>
+      <c r="Y52" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVPH</v>
+      </c>
+      <c r="Z52" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVPH</v>
+      </c>
+      <c r="AA52" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVPH</v>
+      </c>
+      <c r="AB52" s="28">
+        <v>12563</v>
+      </c>
+      <c r="AC52" s="28">
+        <v>22563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="N53" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O53" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S53" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="T53" s="12">
+        <v>31</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V53" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVRH</v>
+      </c>
+      <c r="W53" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVRH</v>
+      </c>
+      <c r="X53" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVRH</v>
+      </c>
+      <c r="Y53" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVRH</v>
+      </c>
+      <c r="Z53" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVRH</v>
+      </c>
+      <c r="AA53" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVRH</v>
+      </c>
+      <c r="AB53" s="28">
+        <v>12564</v>
+      </c>
+      <c r="AC53" s="28">
+        <v>22564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="T54" s="12">
+        <v>31</v>
+      </c>
+      <c r="U54" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V54" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_RVUH</v>
+      </c>
+      <c r="W54" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_RVUH</v>
+      </c>
+      <c r="X54" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_RVUH</v>
+      </c>
+      <c r="Y54" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_RVUH</v>
+      </c>
+      <c r="Z54" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_RVUH</v>
+      </c>
+      <c r="AA54" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_RVUH</v>
+      </c>
+      <c r="AB54" s="28">
+        <v>12565</v>
+      </c>
+      <c r="AC54" s="28">
+        <v>22565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="N55" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S55" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="T55" s="12">
+        <v>31</v>
+      </c>
+      <c r="U55" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="V55" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_GSST</v>
+      </c>
+      <c r="W55" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_GSST</v>
+      </c>
+      <c r="X55" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_GSST</v>
+      </c>
+      <c r="Y55" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_GSST</v>
+      </c>
+      <c r="Z55" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_GSST</v>
+      </c>
+      <c r="AA55" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_GSST</v>
+      </c>
+      <c r="AB55" s="28">
+        <v>12567</v>
+      </c>
+      <c r="AC55" s="28">
+        <v>22567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S56" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="T56" s="12">
+        <v>31</v>
+      </c>
+      <c r="U56" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V56" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_HHTH</v>
+      </c>
+      <c r="W56" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_HHTH</v>
+      </c>
+      <c r="X56" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_HHTH</v>
+      </c>
+      <c r="Y56" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_HHTH</v>
+      </c>
+      <c r="Z56" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_HHTH</v>
+      </c>
+      <c r="AA56" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_HHTH</v>
+      </c>
+      <c r="AB56" s="28">
+        <v>12568</v>
+      </c>
+      <c r="AC56" s="28">
+        <v>22568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="N57" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="P57" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S57" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="T57" s="12">
+        <v>31</v>
+      </c>
+      <c r="U57" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V57" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_SBPE</v>
+      </c>
+      <c r="W57" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_SBPE</v>
+      </c>
+      <c r="X57" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_SBPE</v>
+      </c>
+      <c r="Y57" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_SBPE</v>
+      </c>
+      <c r="Z57" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_SBPE</v>
+      </c>
+      <c r="AA57" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>Peri_SBPE</v>
+      </c>
+      <c r="AB57" s="28">
+        <v>12566</v>
+      </c>
+      <c r="AC57" s="28">
+        <v>22566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="16">
+        <v>45040</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="O58" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q58" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="S58" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="T58" s="12">
+        <v>31</v>
+      </c>
+      <c r="U58" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="V58" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alloc_ICVS</v>
+      </c>
+      <c r="W58" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Ctvr_ICVS</v>
+      </c>
+      <c r="X58" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>GJrT_ICVS</v>
+      </c>
+      <c r="Y58" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>GnJr_ICVS</v>
+      </c>
+      <c r="Z58" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>InCo_ICVS</v>
+      </c>
+      <c r="AA58" s="16" t="str">
+        <f t="shared" si="5"/>
         <v>Peri_ICVS</v>
       </c>
-      <c r="AB24" s="28">
+      <c r="AB58" s="28">
         <v>12570</v>
       </c>
-      <c r="AC24" s="28">
+      <c r="AC58" s="28">
         <v>22570</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:T24" xr:uid="{8151CC44-ADE5-4F90-B6FC-3151F32DA705}"/>
+  <autoFilter ref="A7:T7" xr:uid="{8151CC44-ADE5-4F90-B6FC-3151F32DA705}"/>
   <mergeCells count="7">
     <mergeCell ref="J6:R6"/>
     <mergeCell ref="V6:AA6"/>
@@ -3708,8 +6939,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3725,8 +6956,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3740,8 +6971,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3757,8 +6988,8 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3774,25 +7005,25 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4011,8 +7242,8 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -4026,8 +7257,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -4041,8 +7272,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -4056,8 +7287,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -4071,8 +7302,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -4086,8 +7317,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -4101,8 +7332,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -4116,8 +7347,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -4131,8 +7362,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4160,7 +7391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B4DF7-0A55-4C51-86D2-A51AD76858E5}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -4269,17 +7500,17 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -5278,7 +8509,7 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,8 +8563,8 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
       <c r="S1" s="30"/>
       <c r="T1" s="30"/>
     </row>
@@ -5356,8 +8587,8 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="30"/>
       <c r="T2" s="30"/>
     </row>
@@ -5378,8 +8609,8 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
     </row>
@@ -5402,8 +8633,8 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
     </row>
@@ -5426,8 +8657,8 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
@@ -5441,27 +8672,27 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
